--- a/data/lan_name_lookup.xlsx
+++ b/data/lan_name_lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\sweden-electrification-committee\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62324079-62EA-41B4-927C-F5DEBB107C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086249E8-5BA6-4CC0-A38D-E185A8EB3DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{ABF5AE8B-602B-40BC-B04E-AEB794EEF3C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{ABF5AE8B-602B-40BC-B04E-AEB794EEF3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>lan</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Kristianstad</t>
+  </si>
+  <si>
+    <t>lan_code</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FFE17A-669F-4C3E-8603-5F9E953D7DD4}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,209 +533,284 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B26">
-    <sortCondition ref="B2:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition ref="C2:C25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
